--- a/Metropolitan Roads/28921/ITP-087-CIV-PSDS-Type A Fill-Road Rev 0.xlsx
+++ b/Metropolitan Roads/28921/ITP-087-CIV-PSDS-Type A Fill-Road Rev 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirav\Desktop\Projects\04-Progress Street, South Dandenong\01-ITPs\ITP-078-CIV-PSDS-Type A Fill Road\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\28921\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC61AB-B2E2-4B2E-9D1F-5548AE070609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9015D483-34F2-4100-B2F0-2F7AAB74374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12765" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="405" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -955,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1047,6 +1047,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1092,43 +1128,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1550,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1574,105 +1573,103 @@
         <v>1</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="57" t="str">
+      <c r="C2" s="44" t="str">
         <f>"ITP-"&amp;C4&amp;"-"&amp;C3</f>
         <v>ITP-087-CIV-PSDS-Type A Fill-Road</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="45"/>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="57">
+      <c r="C5" s="44">
         <v>0</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="59">
+      <c r="C6" s="52">
         <v>45281</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="69"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="21" t="s">
         <v>10</v>
       </c>
@@ -1687,12 +1684,12 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="14" t="s">
         <v>11</v>
       </c>
@@ -1703,12 +1700,12 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="O14" s="1"/>
@@ -1717,15 +1714,15 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="O15" s="1"/>
@@ -1751,43 +1748,43 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68" t="s">
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="68" t="s">
+      <c r="I17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="68" t="s">
+      <c r="K17" s="51" t="s">
         <v>21</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="38" t="s">
         <v>22</v>
       </c>
@@ -1797,10 +1794,10 @@
       <c r="G18" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="68"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="51"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
@@ -1808,18 +1805,18 @@
       <c r="A19" s="18">
         <v>1</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="1:19" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
@@ -1860,18 +1857,18 @@
       <c r="A21" s="18">
         <v>2</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="1:19" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
@@ -1903,28 +1900,28 @@
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>3</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
@@ -1962,18 +1959,18 @@
       <c r="A25" s="18">
         <v>4</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
@@ -2010,18 +2007,18 @@
       <c r="A27" s="18">
         <v>5</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
@@ -2115,9 +2112,9 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
     </row>
     <row r="31" spans="1:19" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
@@ -2152,18 +2149,18 @@
       <c r="A32" s="18">
         <v>6</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" spans="1:14" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
@@ -2195,9 +2192,9 @@
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
     </row>
     <row r="34" spans="1:14" ht="236.25" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
@@ -2263,46 +2260,46 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="44"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="56"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="25"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="44"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
@@ -2321,6 +2318,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K38"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="L22:P22"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="L30:N30"/>
@@ -2335,26 +2352,6 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K38"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B23:K23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -2375,15 +2372,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2433,7 +2421,46 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Value>1</Value>
+    </TaxCatchAll>
+    <_dlc_DocId xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">MRPA-1151362262-13246</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">
+      <Url>https://fultonhogan.sharepoint.com/teams/PD07655/_layouts/15/DocIdRedir.aspx?ID=MRPA-1151362262-13246</Url>
+      <Description>MRPA-1151362262-13246</Description>
+    </_dlc_DocIdUrl>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f261dd73-1b88-4a81-8a52-9d4972ac76e3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <l022594273414f01bacd7bb154af51a1 xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Progress Street</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8a381bdb-76b3-4206-94a8-ac5cc1562dad</TermId>
+        </TermInfo>
+      </Terms>
+    </l022594273414f01bacd7bb154af51a1>
+    <_Flow_SignoffStatus xmlns="f261dd73-1b88-4a81-8a52-9d4972ac76e3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A32FBC6DF11D9A49BB1827B8655300DF" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5da458280d7da257179dfb415cba8cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3be47954-cb7c-45b2-ab7a-53ada5817909" xmlns:ns3="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xmlns:ns4="f261dd73-1b88-4a81-8a52-9d4972ac76e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7a2390b6474ac135b240cac7cbccb5" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="3be47954-cb7c-45b2-ab7a-53ada5817909"/>
@@ -2706,37 +2733,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Value>1</Value>
-    </TaxCatchAll>
-    <_dlc_DocId xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">MRPA-1151362262-13246</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">
-      <Url>https://fultonhogan.sharepoint.com/teams/PD07655/_layouts/15/DocIdRedir.aspx?ID=MRPA-1151362262-13246</Url>
-      <Description>MRPA-1151362262-13246</Description>
-    </_dlc_DocIdUrl>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f261dd73-1b88-4a81-8a52-9d4972ac76e3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <l022594273414f01bacd7bb154af51a1 xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Progress Street</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8a381bdb-76b3-4206-94a8-ac5cc1562dad</TermId>
-        </TermInfo>
-      </Terms>
-    </l022594273414f01bacd7bb154af51a1>
-    <_Flow_SignoffStatus xmlns="f261dd73-1b88-4a81-8a52-9d4972ac76e3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2744,15 +2749,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
+    <ds:schemaRef ds:uri="3be47954-cb7c-45b2-ab7a-53ada5817909"/>
+    <ds:schemaRef ds:uri="f261dd73-1b88-4a81-8a52-9d4972ac76e3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAB13EE7-7A1D-48D3-A346-5FC42C0B57D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2770,16 +2779,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
-    <ds:schemaRef ds:uri="3be47954-cb7c-45b2-ab7a-53ada5817909"/>
-    <ds:schemaRef ds:uri="f261dd73-1b88-4a81-8a52-9d4972ac76e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>